--- a/biology/Médecine/Plexus_sacral/Plexus_sacral.xlsx
+++ b/biology/Médecine/Plexus_sacral/Plexus_sacral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus sacral (anciennement plexus sacré, en latin plexus sacralis) est le plexus nerveux qui fournit les nerfs moteurs et sensitifs pour la partie postérieure de la cuisse, la majeure partie de la partie inférieure de la jambe et du pied et une partie du bassin .
 Il fait partie du plexus lombo-sacré.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus sacral est constitué par l'union des rameaux antérieurs des quatrième et cinquième nerfs lombaires constituant le tronc lombo-sacré, et des rameaux antérieurs des trois premiers nerfs sacrés.
 </t>
@@ -543,7 +557,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus sacral a une forme globalement triangulaire avec une base formée par les foramens sacrés antérieurs et un sommet formé par la partie antéro-inférieure du grand foramen ischiatique.
 Il est plaqué sur la face antérieure du muscle piriforme et recouvert à l'avant par un prolongement du fascia pelvien profond.
@@ -583,7 +599,9 @@
           <t>Branche terminale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus sacral se termine par le nerf sciatique.
 </t>
@@ -616,15 +634,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Branches collatérales de la partie antérieure
-Nerf du muscle obturateur interne,
+          <t>Branches collatérales de la partie antérieure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nerf du muscle obturateur interne,
 Nerf du muscle carré fémoral
-Nerf pudendal
-Branches collatérales de la partie postérieure
-Nerf glutéal supérieur
-Nerf glutéal inférieur
-Nerf du muscle piriforme
-Nerf cutané postérieur de la cuisse</t>
+Nerf pudendal</t>
         </is>
       </c>
     </row>
@@ -649,10 +667,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Branches collatérales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Branches collatérales de la partie postérieure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nerf glutéal supérieur
+Nerf glutéal inférieur
+Nerf du muscle piriforme
+Nerf cutané postérieur de la cuisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plexus_sacral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plexus_sacral</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Zone d'innervation musculaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
